--- a/www/IndicatorsPerCountry/Australia_GDPperCapita_TerritorialRef_1946_2012_CCode_36.xlsx
+++ b/www/IndicatorsPerCountry/Australia_GDPperCapita_TerritorialRef_1946_2012_CCode_36.xlsx
@@ -630,13 +630,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Australia_GDPperCapita_TerritorialRef_1946_2012_CCode_36.xlsx
+++ b/www/IndicatorsPerCountry/Australia_GDPperCapita_TerritorialRef_1946_2012_CCode_36.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="214">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,571 +36,589 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>518</t>
-  </si>
-  <si>
-    <t>523</t>
-  </si>
-  <si>
-    <t>538</t>
-  </si>
-  <si>
-    <t>556</t>
-  </si>
-  <si>
-    <t>587</t>
-  </si>
-  <si>
-    <t>616</t>
-  </si>
-  <si>
-    <t>627</t>
-  </si>
-  <si>
-    <t>646</t>
-  </si>
-  <si>
-    <t>663</t>
-  </si>
-  <si>
-    <t>699</t>
-  </si>
-  <si>
-    <t>848</t>
-  </si>
-  <si>
-    <t>877</t>
-  </si>
-  <si>
-    <t>896</t>
-  </si>
-  <si>
-    <t>900</t>
-  </si>
-  <si>
-    <t>946</t>
-  </si>
-  <si>
-    <t>1145</t>
-  </si>
-  <si>
-    <t>1125</t>
-  </si>
-  <si>
-    <t>1180</t>
-  </si>
-  <si>
-    <t>1165</t>
-  </si>
-  <si>
-    <t>1087</t>
-  </si>
-  <si>
-    <t>1374</t>
-  </si>
-  <si>
-    <t>1172</t>
-  </si>
-  <si>
-    <t>1069</t>
-  </si>
-  <si>
-    <t>1239</t>
-  </si>
-  <si>
-    <t>1409</t>
-  </si>
-  <si>
-    <t>1449</t>
-  </si>
-  <si>
-    <t>1602</t>
-  </si>
-  <si>
-    <t>1853</t>
-  </si>
-  <si>
-    <t>2121</t>
-  </si>
-  <si>
-    <t>2095</t>
+    <t>826</t>
+  </si>
+  <si>
+    <t>834</t>
+  </si>
+  <si>
+    <t>858</t>
+  </si>
+  <si>
+    <t>886</t>
+  </si>
+  <si>
+    <t>936</t>
+  </si>
+  <si>
+    <t>982</t>
+  </si>
+  <si>
+    <t>999</t>
+  </si>
+  <si>
+    <t>1030</t>
+  </si>
+  <si>
+    <t>1057</t>
+  </si>
+  <si>
+    <t>1114</t>
+  </si>
+  <si>
+    <t>1352</t>
+  </si>
+  <si>
+    <t>1398</t>
+  </si>
+  <si>
+    <t>1428</t>
+  </si>
+  <si>
+    <t>1435</t>
+  </si>
+  <si>
+    <t>1508</t>
+  </si>
+  <si>
+    <t>1825</t>
+  </si>
+  <si>
+    <t>1793</t>
+  </si>
+  <si>
+    <t>1881</t>
+  </si>
+  <si>
+    <t>1857</t>
+  </si>
+  <si>
+    <t>1733</t>
+  </si>
+  <si>
+    <t>2190</t>
+  </si>
+  <si>
+    <t>1868</t>
+  </si>
+  <si>
+    <t>1704</t>
   </si>
   <si>
     <t>1975</t>
   </si>
   <si>
-    <t>2344</t>
-  </si>
-  <si>
-    <t>2749</t>
-  </si>
-  <si>
-    <t>3010</t>
-  </si>
-  <si>
-    <t>2636</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>3053</t>
-  </si>
-  <si>
-    <t>2694</t>
-  </si>
-  <si>
-    <t>2297</t>
-  </si>
-  <si>
-    <t>2966</t>
-  </si>
-  <si>
-    <t>2894</t>
-  </si>
-  <si>
-    <t>2851</t>
-  </si>
-  <si>
-    <t>2740</t>
-  </si>
-  <si>
-    <t>2730</t>
-  </si>
-  <si>
-    <t>2896</t>
-  </si>
-  <si>
-    <t>2762</t>
-  </si>
-  <si>
-    <t>2843</t>
-  </si>
-  <si>
-    <t>3109</t>
-  </si>
-  <si>
-    <t>3156</t>
-  </si>
-  <si>
-    <t>3094</t>
-  </si>
-  <si>
-    <t>3273</t>
-  </si>
-  <si>
-    <t>3299</t>
-  </si>
-  <si>
-    <t>3553</t>
-  </si>
-  <si>
-    <t>3824</t>
-  </si>
-  <si>
-    <t>3835</t>
-  </si>
-  <si>
-    <t>4138</t>
-  </si>
-  <si>
-    <t>4007</t>
-  </si>
-  <si>
-    <t>4036</t>
-  </si>
-  <si>
-    <t>4277</t>
-  </si>
-  <si>
-    <t>4205</t>
-  </si>
-  <si>
-    <t>4285</t>
-  </si>
-  <si>
-    <t>4455</t>
-  </si>
-  <si>
-    <t>4063</t>
-  </si>
-  <si>
-    <t>4475</t>
-  </si>
-  <si>
-    <t>4304</t>
-  </si>
-  <si>
-    <t>4422</t>
-  </si>
-  <si>
-    <t>4329</t>
-  </si>
-  <si>
-    <t>4632</t>
-  </si>
-  <si>
-    <t>4504</t>
-  </si>
-  <si>
-    <t>4747</t>
-  </si>
-  <si>
-    <t>4458</t>
-  </si>
-  <si>
-    <t>4666</t>
-  </si>
-  <si>
-    <t>3995</t>
-  </si>
-  <si>
-    <t>3708</t>
-  </si>
-  <si>
-    <t>3766</t>
-  </si>
-  <si>
-    <t>3487</t>
-  </si>
-  <si>
-    <t>3685</t>
-  </si>
-  <si>
-    <t>3420</t>
-  </si>
-  <si>
-    <t>3891</t>
-  </si>
-  <si>
-    <t>3840</t>
-  </si>
-  <si>
-    <t>4013</t>
-  </si>
-  <si>
-    <t>3839</t>
-  </si>
-  <si>
-    <t>3823</t>
-  </si>
-  <si>
-    <t>4076</t>
-  </si>
-  <si>
-    <t>4295</t>
-  </si>
-  <si>
-    <t>4282</t>
-  </si>
-  <si>
-    <t>4507</t>
+    <t>2246</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2554</t>
+  </si>
+  <si>
+    <t>2954</t>
+  </si>
+  <si>
+    <t>3381</t>
+  </si>
+  <si>
+    <t>3339</t>
+  </si>
+  <si>
+    <t>3148</t>
+  </si>
+  <si>
+    <t>3736</t>
+  </si>
+  <si>
+    <t>4382</t>
+  </si>
+  <si>
+    <t>4798</t>
+  </si>
+  <si>
+    <t>4202</t>
+  </si>
+  <si>
+    <t>3988</t>
+  </si>
+  <si>
+    <t>4866</t>
+  </si>
+  <si>
+    <t>4294</t>
+  </si>
+  <si>
+    <t>3661</t>
+  </si>
+  <si>
+    <t>4728</t>
+  </si>
+  <si>
+    <t>4613</t>
+  </si>
+  <si>
+    <t>4544</t>
+  </si>
+  <si>
+    <t>4368</t>
+  </si>
+  <si>
+    <t>4352</t>
   </si>
   <si>
     <t>4616</t>
   </si>
   <si>
-    <t>4693</t>
-  </si>
-  <si>
-    <t>4981</t>
-  </si>
-  <si>
-    <t>5210</t>
-  </si>
-  <si>
-    <t>5104</t>
-  </si>
-  <si>
-    <t>5098</t>
-  </si>
-  <si>
-    <t>5157</t>
-  </si>
-  <si>
-    <t>5027</t>
-  </si>
-  <si>
-    <t>4897</t>
-  </si>
-  <si>
-    <t>4878</t>
-  </si>
-  <si>
-    <t>4791</t>
-  </si>
-  <si>
-    <t>4602</t>
-  </si>
-  <si>
-    <t>4716</t>
-  </si>
-  <si>
-    <t>4766</t>
-  </si>
-  <si>
-    <t>4911</t>
-  </si>
-  <si>
-    <t>5064</t>
-  </si>
-  <si>
-    <t>5192</t>
-  </si>
-  <si>
-    <t>5417</t>
-  </si>
-  <si>
-    <t>5553</t>
-  </si>
-  <si>
-    <t>5573</t>
-  </si>
-  <si>
-    <t>5544</t>
-  </si>
-  <si>
-    <t>5452</t>
-  </si>
-  <si>
-    <t>5263</t>
-  </si>
-  <si>
-    <t>4708</t>
-  </si>
-  <si>
-    <t>4354</t>
-  </si>
-  <si>
-    <t>4564</t>
-  </si>
-  <si>
-    <t>4842</t>
-  </si>
-  <si>
-    <t>5060</t>
-  </si>
-  <si>
-    <t>5318</t>
-  </si>
-  <si>
-    <t>5516</t>
-  </si>
-  <si>
-    <t>5746</t>
-  </si>
-  <si>
-    <t>5886</t>
-  </si>
-  <si>
-    <t>5846</t>
-  </si>
-  <si>
-    <t>6166</t>
-  </si>
-  <si>
-    <t>6788</t>
-  </si>
-  <si>
-    <t>7505</t>
-  </si>
-  <si>
-    <t>7703</t>
-  </si>
-  <si>
-    <t>7362</t>
-  </si>
-  <si>
-    <t>6917</t>
-  </si>
-  <si>
-    <t>6595</t>
-  </si>
-  <si>
-    <t>6664</t>
-  </si>
-  <si>
-    <t>6967</t>
-  </si>
-  <si>
-    <t>7237</t>
-  </si>
-  <si>
-    <t>7412</t>
-  </si>
-  <si>
-    <t>7507</t>
-  </si>
-  <si>
-    <t>7418</t>
-  </si>
-  <si>
-    <t>7791</t>
-  </si>
-  <si>
-    <t>8027</t>
-  </si>
-  <si>
-    <t>8108</t>
-  </si>
-  <si>
-    <t>8090</t>
+    <t>4403</t>
+  </si>
+  <si>
+    <t>4532</t>
+  </si>
+  <si>
+    <t>4956</t>
+  </si>
+  <si>
+    <t>5031</t>
+  </si>
+  <si>
+    <t>4932</t>
+  </si>
+  <si>
+    <t>5217</t>
+  </si>
+  <si>
+    <t>5259</t>
+  </si>
+  <si>
+    <t>5663</t>
+  </si>
+  <si>
+    <t>6095</t>
+  </si>
+  <si>
+    <t>6113</t>
+  </si>
+  <si>
+    <t>6596</t>
+  </si>
+  <si>
+    <t>6387</t>
+  </si>
+  <si>
+    <t>6433</t>
+  </si>
+  <si>
+    <t>6817</t>
+  </si>
+  <si>
+    <t>6703</t>
+  </si>
+  <si>
+    <t>6830</t>
+  </si>
+  <si>
+    <t>7101</t>
+  </si>
+  <si>
+    <t>6476</t>
+  </si>
+  <si>
+    <t>7133</t>
+  </si>
+  <si>
+    <t>6861</t>
+  </si>
+  <si>
+    <t>7049</t>
+  </si>
+  <si>
+    <t>6900</t>
+  </si>
+  <si>
+    <t>7383</t>
+  </si>
+  <si>
+    <t>7179</t>
+  </si>
+  <si>
+    <t>7567</t>
+  </si>
+  <si>
+    <t>7106</t>
+  </si>
+  <si>
+    <t>7438</t>
+  </si>
+  <si>
+    <t>6368</t>
+  </si>
+  <si>
+    <t>5910</t>
+  </si>
+  <si>
+    <t>6003</t>
+  </si>
+  <si>
+    <t>5558</t>
+  </si>
+  <si>
+    <t>5874</t>
+  </si>
+  <si>
+    <t>5451</t>
+  </si>
+  <si>
+    <t>6202</t>
+  </si>
+  <si>
+    <t>6121</t>
+  </si>
+  <si>
+    <t>6397</t>
+  </si>
+  <si>
+    <t>6119</t>
+  </si>
+  <si>
+    <t>6094</t>
+  </si>
+  <si>
+    <t>6497</t>
+  </si>
+  <si>
+    <t>6846</t>
+  </si>
+  <si>
+    <t>6825</t>
+  </si>
+  <si>
+    <t>7184</t>
+  </si>
+  <si>
+    <t>7358</t>
+  </si>
+  <si>
+    <t>7481</t>
+  </si>
+  <si>
+    <t>7940</t>
   </si>
   <si>
     <t>8305</t>
   </si>
   <si>
-    <t>8628</t>
-  </si>
-  <si>
-    <t>8791</t>
-  </si>
-  <si>
-    <t>8653</t>
-  </si>
-  <si>
-    <t>9027</t>
-  </si>
-  <si>
-    <t>9400</t>
-  </si>
-  <si>
-    <t>9849</t>
-  </si>
-  <si>
-    <t>10152</t>
-  </si>
-  <si>
-    <t>10241</t>
-  </si>
-  <si>
-    <t>10733</t>
-  </si>
-  <si>
-    <t>11148</t>
-  </si>
-  <si>
-    <t>11561</t>
-  </si>
-  <si>
-    <t>12024</t>
-  </si>
-  <si>
-    <t>12290</t>
-  </si>
-  <si>
-    <t>12404</t>
-  </si>
-  <si>
-    <t>12878</t>
-  </si>
-  <si>
-    <t>12985</t>
-  </si>
-  <si>
-    <t>13170</t>
-  </si>
-  <si>
-    <t>13559</t>
-  </si>
-  <si>
-    <t>13546</t>
-  </si>
-  <si>
-    <t>13769</t>
-  </si>
-  <si>
-    <t>14320</t>
-  </si>
-  <si>
-    <t>14412</t>
-  </si>
-  <si>
-    <t>14660</t>
-  </si>
-  <si>
-    <t>14239</t>
-  </si>
-  <si>
-    <t>15062</t>
-  </si>
-  <si>
-    <t>15638</t>
-  </si>
-  <si>
-    <t>15757</t>
-  </si>
-  <si>
-    <t>16293</t>
-  </si>
-  <si>
-    <t>16752</t>
-  </si>
-  <si>
-    <t>17194</t>
-  </si>
-  <si>
-    <t>17172.6822364</t>
-  </si>
-  <si>
-    <t>16743.3239855</t>
-  </si>
-  <si>
-    <t>16988.8740134</t>
-  </si>
-  <si>
-    <t>17478.1852103</t>
-  </si>
-  <si>
-    <t>18145.5684883</t>
-  </si>
-  <si>
-    <t>18529.5582068</t>
-  </si>
-  <si>
-    <t>19075.0824788</t>
-  </si>
-  <si>
-    <t>19612.091773</t>
-  </si>
-  <si>
-    <t>20377.949762</t>
-  </si>
-  <si>
-    <t>20970.8942867</t>
-  </si>
-  <si>
-    <t>21377.8231252</t>
-  </si>
-  <si>
-    <t>21662.0256681</t>
-  </si>
-  <si>
-    <t>22236.935273</t>
-  </si>
-  <si>
-    <t>22666.2777885</t>
-  </si>
-  <si>
-    <t>23322.0078831</t>
-  </si>
-  <si>
-    <t>23764.6136874</t>
-  </si>
-  <si>
-    <t>24097.573451</t>
-  </si>
-  <si>
-    <t>24911.5778678</t>
-  </si>
-  <si>
-    <t>25218.3018907</t>
-  </si>
-  <si>
-    <t>25255.6388431</t>
-  </si>
-  <si>
-    <t>25584.488356</t>
+    <t>8136</t>
+  </si>
+  <si>
+    <t>8126</t>
+  </si>
+  <si>
+    <t>8220</t>
+  </si>
+  <si>
+    <t>8013</t>
+  </si>
+  <si>
+    <t>7806</t>
+  </si>
+  <si>
+    <t>7775</t>
+  </si>
+  <si>
+    <t>7637</t>
+  </si>
+  <si>
+    <t>7336</t>
+  </si>
+  <si>
+    <t>7517</t>
+  </si>
+  <si>
+    <t>7597</t>
+  </si>
+  <si>
+    <t>7828</t>
+  </si>
+  <si>
+    <t>8072</t>
+  </si>
+  <si>
+    <t>8276</t>
+  </si>
+  <si>
+    <t>8635</t>
+  </si>
+  <si>
+    <t>8851</t>
+  </si>
+  <si>
+    <t>8883</t>
+  </si>
+  <si>
+    <t>8837</t>
+  </si>
+  <si>
+    <t>8690</t>
+  </si>
+  <si>
+    <t>8389</t>
+  </si>
+  <si>
+    <t>7504</t>
+  </si>
+  <si>
+    <t>6940</t>
+  </si>
+  <si>
+    <t>7275</t>
+  </si>
+  <si>
+    <t>7718</t>
+  </si>
+  <si>
+    <t>8066</t>
+  </si>
+  <si>
+    <t>8477</t>
+  </si>
+  <si>
+    <t>8792</t>
+  </si>
+  <si>
+    <t>9159</t>
+  </si>
+  <si>
+    <t>9382</t>
+  </si>
+  <si>
+    <t>9318</t>
+  </si>
+  <si>
+    <t>9828</t>
+  </si>
+  <si>
+    <t>10820</t>
+  </si>
+  <si>
+    <t>11963</t>
+  </si>
+  <si>
+    <t>12278</t>
+  </si>
+  <si>
+    <t>11735</t>
+  </si>
+  <si>
+    <t>11026</t>
+  </si>
+  <si>
+    <t>10512</t>
+  </si>
+  <si>
+    <t>10622</t>
+  </si>
+  <si>
+    <t>11105</t>
+  </si>
+  <si>
+    <t>11536</t>
+  </si>
+  <si>
+    <t>11815</t>
+  </si>
+  <si>
+    <t>11966</t>
+  </si>
+  <si>
+    <t>11824</t>
+  </si>
+  <si>
+    <t>12419</t>
+  </si>
+  <si>
+    <t>12795</t>
+  </si>
+  <si>
+    <t>12924</t>
+  </si>
+  <si>
+    <t>12895</t>
+  </si>
+  <si>
+    <t>13238</t>
+  </si>
+  <si>
+    <t>13753</t>
+  </si>
+  <si>
+    <t>14013</t>
+  </si>
+  <si>
+    <t>13793</t>
+  </si>
+  <si>
+    <t>14389</t>
+  </si>
+  <si>
+    <t>14983</t>
+  </si>
+  <si>
+    <t>15699</t>
+  </si>
+  <si>
+    <t>16182</t>
+  </si>
+  <si>
+    <t>16324</t>
+  </si>
+  <si>
+    <t>17108</t>
+  </si>
+  <si>
+    <t>17770</t>
+  </si>
+  <si>
+    <t>18428</t>
+  </si>
+  <si>
+    <t>19166</t>
+  </si>
+  <si>
+    <t>19590</t>
+  </si>
+  <si>
+    <t>19772</t>
+  </si>
+  <si>
+    <t>20527</t>
+  </si>
+  <si>
+    <t>20698</t>
+  </si>
+  <si>
+    <t>20993</t>
+  </si>
+  <si>
+    <t>21613</t>
+  </si>
+  <si>
+    <t>21592</t>
+  </si>
+  <si>
+    <t>21948</t>
+  </si>
+  <si>
+    <t>22826</t>
+  </si>
+  <si>
+    <t>22972</t>
+  </si>
+  <si>
+    <t>23368</t>
+  </si>
+  <si>
+    <t>22697</t>
+  </si>
+  <si>
+    <t>24009</t>
+  </si>
+  <si>
+    <t>24927</t>
+  </si>
+  <si>
+    <t>25116</t>
+  </si>
+  <si>
+    <t>25971</t>
+  </si>
+  <si>
+    <t>26702</t>
+  </si>
+  <si>
+    <t>27407</t>
+  </si>
+  <si>
+    <t>27373</t>
+  </si>
+  <si>
+    <t>26861.2749592856</t>
+  </si>
+  <si>
+    <t>27560.1782773384</t>
+  </si>
+  <si>
+    <t>28622.4757584582</t>
+  </si>
+  <si>
+    <t>29844.1713244349</t>
+  </si>
+  <si>
+    <t>30690.0624398521</t>
+  </si>
+  <si>
+    <t>31740.4697474047</t>
+  </si>
+  <si>
+    <t>32857.9937806025</t>
+  </si>
+  <si>
+    <t>34337.139432097</t>
+  </si>
+  <si>
+    <t>35551.0195059737</t>
+  </si>
+  <si>
+    <t>36603.0449959447</t>
+  </si>
+  <si>
+    <t>37275.9912489095</t>
+  </si>
+  <si>
+    <t>38567.0654883377</t>
+  </si>
+  <si>
+    <t>39523.6551974459</t>
+  </si>
+  <si>
+    <t>40887.725336397</t>
+  </si>
+  <si>
+    <t>41904.4458707113</t>
+  </si>
+  <si>
+    <t>42650.9859308496</t>
+  </si>
+  <si>
+    <t>44033.5837617713</t>
+  </si>
+  <si>
+    <t>44421.6404707281</t>
+  </si>
+  <si>
+    <t>44686.541383463</t>
+  </si>
+  <si>
+    <t>45400.2233987967</t>
+  </si>
+  <si>
+    <t>46132</t>
+  </si>
+  <si>
+    <t>46999</t>
+  </si>
+  <si>
+    <t>47250</t>
+  </si>
+  <si>
+    <t>47867</t>
+  </si>
+  <si>
+    <t>48357</t>
+  </si>
+  <si>
+    <t>48845</t>
   </si>
   <si>
     <t>Description</t>
@@ -3951,6 +3969,108 @@
         <v>195</v>
       </c>
     </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C193" t="s">
+        <v>6</v>
+      </c>
+      <c r="D193" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E193" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194" t="s">
+        <v>6</v>
+      </c>
+      <c r="D194" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E194" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C195" t="s">
+        <v>6</v>
+      </c>
+      <c r="D195" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E195" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196" t="s">
+        <v>6</v>
+      </c>
+      <c r="D196" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E196" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C197" t="s">
+        <v>6</v>
+      </c>
+      <c r="D197" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E197" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198" t="s">
+        <v>6</v>
+      </c>
+      <c r="D198" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E198" t="s">
+        <v>201</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -3966,50 +4086,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B1" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B3" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B4" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B5" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B6" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
